--- a/src/burningglass/states_table.xlsx
+++ b/src/burningglass/states_table.xlsx
@@ -33,31 +33,31 @@
     <t>O*NET SOC Code</t>
   </si>
   <si>
-    <t>Job Zones group occupations into one of five categories based on levels of education, experience, and training necessary to perform the occupation. We matched O*NET SOC occupation codes from BGT resume items to O*NET job zones. Zone 1 is little to no preparation needed.</t>
+    <t>Some of these occupations may require a high school diploma or GED certificate. Little or no previous work-related skill, knowledge, or experience is needed for these occupations</t>
   </si>
   <si>
     <t>Zone 2</t>
   </si>
   <si>
-    <t>Zone 2 is some preparation needed.</t>
+    <t>These occupations usually require a high school diploma. Some previous work-related skill, knowledge, or experience is usually needed.</t>
   </si>
   <si>
     <t>Zone 3</t>
   </si>
   <si>
-    <t>Zone 3 is medium preparation needed.</t>
+    <t>Most occupations in this zone require training in vocational schools, related on-the-job experience, or an associate's degree. Previous work-related skill, knowledge, or experience is required for these occupations.</t>
   </si>
   <si>
     <t>Zone 4</t>
   </si>
   <si>
-    <t>Zone 4 is considerable preparation needed.</t>
+    <t xml:space="preserve">Most of these occupations require a four-year bachelor's degree. A considerable amount of work-related skill, knowledge, or experience is needed for these occupations. </t>
   </si>
   <si>
     <t>Zone 5</t>
   </si>
   <si>
-    <t>Zone 5 is extensive preparation needed.</t>
+    <t>Most of these occupations require graduate school. For example, they may require a master's degree, and some require a Ph.D., M.D., or J.D. (law degree). Extensive skill, knowledge, and experience are needed for these occupations.</t>
   </si>
   <si>
     <t>Missing zone</t>
@@ -69,7 +69,7 @@
     <t>Military</t>
   </si>
   <si>
-    <t>A resume item with O*NET SOC code for Military occupations (those beginning with "55-").</t>
+    <t>A resume item with O*NET SOC code for Military occupations.</t>
   </si>
   <si>
     <t>Military transition unemployed</t>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -113,6 +113,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,11 +129,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -365,6 +369,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -373,7 +378,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -384,7 +389,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -395,7 +400,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -406,7 +411,7 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -417,7 +422,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -439,7 +444,7 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
